--- a/数据/Toyhouse_wiki_contributions.xlsx
+++ b/数据/Toyhouse_wiki_contributions.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$I$3</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>排名</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>小组平均分</t>
+  </si>
+  <si>
+    <t>The score is defined as (number of unique pages edited) + 2 * square root ((number of edits) - (number of unique pages edited)).</t>
+  </si>
+  <si>
+    <t>变更次数</t>
   </si>
 </sst>
 </file>
@@ -793,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H46"/>
+  <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -804,7 +810,12 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="1" spans="2:9">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -826,8 +837,11 @@
       <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>1</v>
       </c>
@@ -849,8 +863,11 @@
       <c r="H4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>2</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>3</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="H6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="I6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>4</v>
       </c>
@@ -918,8 +941,11 @@
       <c r="H7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>5</v>
       </c>
@@ -941,8 +967,11 @@
       <c r="H8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="I8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9">
         <v>6</v>
       </c>
@@ -964,8 +993,11 @@
       <c r="H9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>7</v>
       </c>
@@ -987,8 +1019,11 @@
       <c r="H10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1010,8 +1045,11 @@
       <c r="H11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="I11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1033,8 +1071,11 @@
       <c r="H12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="I12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1056,8 +1097,11 @@
       <c r="H13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1079,8 +1123,11 @@
       <c r="H14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="I14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1102,8 +1149,11 @@
       <c r="H15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="I15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1125,8 +1175,11 @@
       <c r="H16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1148,8 +1201,11 @@
       <c r="H17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1171,8 +1227,11 @@
       <c r="H18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1194,8 +1253,11 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1217,8 +1279,11 @@
       <c r="H20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1240,8 +1305,11 @@
       <c r="H21">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="I21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1344,7 @@
         <v>61.333333333333336</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:9">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1290,7 +1358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1599,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H21"/>
+  <autoFilter ref="B3:I3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/数据/Toyhouse_wiki_contributions.xlsx
+++ b/数据/Toyhouse_wiki_contributions.xlsx
@@ -7,10 +7,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="总表" sheetId="1" r:id="rId1"/>
+    <sheet name="按小组分" sheetId="2" r:id="rId2"/>
+    <sheet name="按学院分" sheetId="3" r:id="rId3"/>
+    <sheet name="按年级分" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总表!$B$3:$I$3</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,8 +24,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wangdh w</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>截止10月28日00：45分</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t>排名</t>
   </si>
@@ -71,7 +99,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,7 +119,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,16 +388,158 @@
   <si>
     <t>变更次数</t>
   </si>
+  <si>
+    <t>sunyq12</t>
+  </si>
+  <si>
+    <t>电子工程系</t>
+  </si>
+  <si>
+    <t>无22</t>
+  </si>
+  <si>
+    <t>孙梦楠</t>
+  </si>
+  <si>
+    <t>sunmn13</t>
+  </si>
+  <si>
+    <t>生命科学学院</t>
+  </si>
+  <si>
+    <t>生32</t>
+  </si>
+  <si>
+    <t>王小珊</t>
+  </si>
+  <si>
+    <t>wangxs14</t>
+  </si>
+  <si>
+    <t>建筑学院</t>
+  </si>
+  <si>
+    <t>建41</t>
+  </si>
+  <si>
+    <t>马晗熙</t>
+  </si>
+  <si>
+    <t>mahx14</t>
+  </si>
+  <si>
+    <t>规划4</t>
+  </si>
+  <si>
+    <t>liusy14</t>
+  </si>
+  <si>
+    <t>建43</t>
+  </si>
+  <si>
+    <t>qinh14</t>
+  </si>
+  <si>
+    <t>huangzh14</t>
+  </si>
+  <si>
+    <t>ningzy14</t>
+  </si>
+  <si>
+    <t>生41</t>
+  </si>
+  <si>
+    <t>shix14</t>
+  </si>
+  <si>
+    <t>chuyc14</t>
+  </si>
+  <si>
+    <t>tangrx14</t>
+  </si>
+  <si>
+    <t>dengyq14</t>
+  </si>
+  <si>
+    <t>sunfm14</t>
+  </si>
+  <si>
+    <t>yanj14</t>
+  </si>
+  <si>
+    <t>liaojh14</t>
+  </si>
+  <si>
+    <t>法学院</t>
+  </si>
+  <si>
+    <t>法41</t>
+  </si>
+  <si>
+    <t>zhangsc14</t>
+  </si>
+  <si>
+    <t>lux15</t>
+  </si>
+  <si>
+    <t>无51</t>
+  </si>
+  <si>
+    <t>zhaoyq15</t>
+  </si>
+  <si>
+    <t>化学系</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Avenir Book"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>一年级</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四年级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -384,7 +554,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -392,9 +562,51 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,7 +626,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -440,37 +652,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -798,15 +1091,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="10.83203125" style="3"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -819,7 +1113,7 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -845,7 +1139,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
       <c r="D4">
@@ -871,7 +1165,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>93</v>
       </c>
       <c r="D5">
@@ -897,7 +1191,7 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>86</v>
       </c>
       <c r="D6">
@@ -923,7 +1217,7 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>78</v>
       </c>
       <c r="D7">
@@ -949,7 +1243,7 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>77</v>
       </c>
       <c r="D8">
@@ -975,7 +1269,7 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>75</v>
       </c>
       <c r="D9">
@@ -1001,7 +1295,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>54</v>
       </c>
       <c r="D10">
@@ -1027,7 +1321,7 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>52</v>
       </c>
       <c r="D11">
@@ -1053,7 +1347,7 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>49</v>
       </c>
       <c r="D12">
@@ -1079,7 +1373,7 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>49</v>
       </c>
       <c r="D13">
@@ -1105,7 +1399,7 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>46</v>
       </c>
       <c r="D14">
@@ -1131,7 +1425,7 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>46</v>
       </c>
       <c r="D15">
@@ -1157,7 +1451,7 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>43</v>
       </c>
       <c r="D16">
@@ -1183,7 +1477,7 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>39</v>
       </c>
       <c r="D17">
@@ -1209,7 +1503,7 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>38</v>
       </c>
       <c r="D18">
@@ -1235,7 +1529,7 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>33</v>
       </c>
       <c r="D19">
@@ -1261,7 +1555,7 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>30</v>
       </c>
       <c r="D20">
@@ -1287,7 +1581,7 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>25</v>
       </c>
       <c r="D21">
@@ -1309,297 +1603,742 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>86</v>
-      </c>
-      <c r="F29">
-        <f>SUM(E29:E31)/3</f>
-        <v>61.333333333333336</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>93</v>
-      </c>
-      <c r="F32">
-        <f>SUM(E32:E35)/4</f>
-        <v>55.75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>17</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>75</v>
-      </c>
-      <c r="F36">
-        <f>SUM(E36:E39)/4</f>
-        <v>46.25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
-      </c>
-      <c r="E39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>100</v>
-      </c>
-      <c r="F40">
-        <f>SUM(E40:E42)/4</f>
-        <v>55.25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>13</v>
-      </c>
-      <c r="E42">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>77</v>
-      </c>
-      <c r="F43">
-        <f>SUM(E43:E46)/4</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>14</v>
-      </c>
-      <c r="E45">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="B3:I3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUM(E3:E5)/3</f>
+        <v>61.333333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SUM(E6:E9)/4</f>
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUM(E10:E13)/4</f>
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E14:E16)/4</f>
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2">
+        <f>SUM(E17:E20)/4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F20"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17">
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>86</v>
+      </c>
+      <c r="H2" s="9">
+        <f>SUM(G2:G6)/5</f>
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17">
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" ht="17">
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="2:8" ht="17">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="8">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>33</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8" ht="17">
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8">
+        <v>46</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" ht="17">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8">
+        <v>49</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(G7:G14)/8</f>
+        <v>51.875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" ht="17">
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" ht="17">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>78</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" ht="17">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="8">
+        <v>7</v>
+      </c>
+      <c r="G11" s="8">
+        <v>54</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" ht="17">
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="8">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" ht="17">
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="8">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8">
+        <v>75</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8" ht="17">
+      <c r="B14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8">
+        <v>39</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" ht="17">
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="8">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8">
+        <v>46</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(G15:G16)/2</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>49</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" ht="17">
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>100</v>
+      </c>
+      <c r="H17" s="9">
+        <f>SUM(G17:G18)/2</f>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17">
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8">
+        <v>43</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" ht="20">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>93</v>
+      </c>
+      <c r="H19" s="8">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H15:H16"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1608,4 +2347,438 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="18"/>
+    <col min="9" max="9" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="21" customHeight="1">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>100</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20">
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>93</v>
+      </c>
+      <c r="I3" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17">
+      <c r="B4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>86</v>
+      </c>
+      <c r="I4" s="13">
+        <f>SUM(H4:H8)/5</f>
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17">
+      <c r="B5" s="16"/>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="8">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8">
+        <v>25</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" ht="17">
+      <c r="B6" s="16"/>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>77</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" ht="17">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="8">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8">
+        <v>33</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" ht="17">
+      <c r="B8" s="16"/>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="8">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8">
+        <v>46</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" ht="17">
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="8">
+        <v>9</v>
+      </c>
+      <c r="H9" s="8">
+        <v>49</v>
+      </c>
+      <c r="I9" s="13">
+        <f>SUM(H9:H15)/7</f>
+        <v>53.714285714285715</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="17">
+      <c r="B10" s="16"/>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8">
+        <v>52</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" ht="17">
+      <c r="B11" s="16"/>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="8">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8">
+        <v>30</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" ht="17">
+      <c r="B12" s="16"/>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>78</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" ht="17">
+      <c r="B13" s="16"/>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7</v>
+      </c>
+      <c r="H13" s="8">
+        <v>54</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" ht="17">
+      <c r="B14" s="16"/>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="8">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8">
+        <v>38</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" ht="17">
+      <c r="B15" s="16"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6</v>
+      </c>
+      <c r="H15" s="8">
+        <v>75</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" ht="17">
+      <c r="B16" s="16"/>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="8">
+        <v>11</v>
+      </c>
+      <c r="H16" s="8">
+        <v>46</v>
+      </c>
+      <c r="I16" s="13">
+        <f>SUM(H16:H17)/2</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
+      <c r="H17" s="8">
+        <v>49</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" ht="17">
+      <c r="B18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="8">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8">
+        <v>39</v>
+      </c>
+      <c r="I18" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="17">
+      <c r="B19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="8">
+        <v>13</v>
+      </c>
+      <c r="H19" s="8">
+        <v>43</v>
+      </c>
+      <c r="I19" s="12">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="I16:I17"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>